--- a/CampDeBases/Sud-Ouest/Docs/2015-04-09 gsoi - sourcing sso.xlsx
+++ b/CampDeBases/Sud-Ouest/Docs/2015-04-09 gsoi - sourcing sso.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Camp de bases\Projects\CampDeBases\Sud-Ouest\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="20115" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="BRUT" sheetId="1" r:id="rId1"/>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="680">
   <si>
     <t>NomSource</t>
   </si>
@@ -1493,6 +1498,606 @@
   </si>
   <si>
     <t>Clé</t>
+  </si>
+  <si>
+    <t>Редактор кода, например, SO, леев,</t>
+  </si>
+  <si>
+    <t>Абонентский номер</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>День рождения</t>
+  </si>
+  <si>
+    <t>Причина социальная</t>
+  </si>
+  <si>
+    <t>Тип абонента</t>
+  </si>
+  <si>
+    <t>SSO Id хранится в системе управления подпиской</t>
+  </si>
+  <si>
+    <t>Количество получателей (за контракт)</t>
+  </si>
+  <si>
+    <t>Адрес электронной почты</t>
+  </si>
+  <si>
+    <t>Номер телефона</t>
+  </si>
+  <si>
+    <t>Почтовый адрес</t>
+  </si>
+  <si>
+    <t>Имя владельца кредитной карты</t>
+  </si>
+  <si>
+    <t>Срок годности кредитной карты</t>
+  </si>
+  <si>
+    <t>Валовой импорт XML лента</t>
+  </si>
+  <si>
+    <t>Сообщение импортных потоков</t>
+  </si>
+  <si>
+    <t>Дата обновления записи</t>
+  </si>
+  <si>
+    <t>Контактный номер</t>
+  </si>
+  <si>
+    <t>Дата договора Начните</t>
+  </si>
+  <si>
+    <t>Дата окончания договора</t>
+  </si>
+  <si>
+    <t>Компания код</t>
+  </si>
+  <si>
+    <t>Код Название</t>
+  </si>
+  <si>
+    <t>Редактировать код</t>
+  </si>
+  <si>
+    <t>Предложение код</t>
+  </si>
+  <si>
+    <t>Предложение Вариант</t>
+  </si>
+  <si>
+    <t>Право на PDF</t>
+  </si>
+  <si>
+    <t>Количество доставлен за день</t>
+  </si>
+  <si>
+    <t>Последовательное ключ</t>
+  </si>
+  <si>
+    <t>Код обновления</t>
+  </si>
+  <si>
+    <t>Тип движения ...</t>
+  </si>
+  <si>
+    <t>Способ оплаты</t>
+  </si>
+  <si>
+    <t>VAL: Velide. Это проверка движения в защиту прав, который добавляет к SSO</t>
+  </si>
+  <si>
+    <t>БО пользователь, который создал движение (если движение было введено в BO)</t>
+  </si>
+  <si>
+    <t>SSO Ключ обеспокоены движения</t>
+  </si>
+  <si>
+    <t>Дата движения</t>
+  </si>
+  <si>
+    <t>Дополнительные séralisées данных</t>
+  </si>
+  <si>
+    <t>Не используется</t>
+  </si>
+  <si>
+    <t>Движение проверка Дата</t>
+  </si>
+  <si>
+    <t>Сумма, выплаченная пользователем (если оно исходит от покупки)</t>
+  </si>
+  <si>
+    <t>Движение происхождения (интернет, БО, bojnum, импорт, ...)</t>
+  </si>
+  <si>
+    <t>Дата вступления в силу движения (для проверки прошлое элемент)</t>
+  </si>
+  <si>
+    <t>IP-адрес пользователя</t>
+  </si>
+  <si>
+    <t>Дата создания вступления</t>
+  </si>
+  <si>
+    <t>Статус IP:</t>
+  </si>
+  <si>
+    <t>Дата черный список</t>
+  </si>
+  <si>
+    <t>Iduser (БО), имеющих в черный список IP-</t>
+  </si>
+  <si>
+    <t>Имя пользователя (БО), имеющих в черный список IP-</t>
+  </si>
+  <si>
+    <t>Ключ Родитель в случае обсуждения</t>
+  </si>
+  <si>
+    <t>ID статьи, которая прилагается комментарий (id_sans_version)</t>
+  </si>
+  <si>
+    <t>Заголовок</t>
+  </si>
+  <si>
+    <t>Путь тему</t>
+  </si>
+  <si>
+    <t>Назовите основную тему статьи</t>
+  </si>
+  <si>
+    <t>Обзор Название</t>
+  </si>
+  <si>
+    <t>Текст комментария</t>
+  </si>
+  <si>
+    <t>Веб-сайт статье</t>
+  </si>
+  <si>
+    <t>Заметьте, что в БО (введено пользователем BO)</t>
+  </si>
+  <si>
+    <t>Дата комментарий</t>
+  </si>
+  <si>
+    <t>Дата создания (день только)</t>
+  </si>
+  <si>
+    <t>Статус этого комментария ...</t>
+  </si>
+  <si>
+    <t>Печенье для Netino</t>
+  </si>
+  <si>
+    <t>Идентификатор пользователя, отправившего комментарий</t>
+  </si>
+  <si>
+    <t>Ключ раздел в таблице comm_information</t>
+  </si>
+  <si>
+    <t>П. И. Id для этого комментария</t>
+  </si>
+  <si>
+    <t>Id модератором</t>
+  </si>
+  <si>
+    <t>Модератор Имя</t>
+  </si>
+  <si>
+    <t>Дата умеренность</t>
+  </si>
+  <si>
+    <t>Модифицированный комментарий</t>
+  </si>
+  <si>
+    <t>Информация о СМИ (интернет, таблетки, приложение WS), который был подан на комментарий</t>
+  </si>
+  <si>
+    <t>В поле User Id</t>
+  </si>
+  <si>
+    <t>IP-Id</t>
+  </si>
+  <si>
+    <t>Id внешний SSO (если не сделано депозитного счета SSO)</t>
+  </si>
+  <si>
+    <t>Внешний сайт аутентификации (например, Facebook)</t>
+  </si>
+  <si>
+    <t>Прозвище</t>
+  </si>
+  <si>
+    <t>адрес электронной почты</t>
+  </si>
+  <si>
+    <t>[Не используется]</t>
+  </si>
+  <si>
+    <t>Счет дата создания</t>
+  </si>
+  <si>
+    <t>Дата Изменение аккаунт</t>
+  </si>
+  <si>
+    <t>Статус интернета ...</t>
+  </si>
+  <si>
+    <t>Идентификатор пользователя (БО), имеющих в черный список</t>
+  </si>
+  <si>
+    <t>Имя пользователя (БО), имеющих в черный список</t>
+  </si>
+  <si>
+    <t>ID статьи</t>
+  </si>
+  <si>
+    <t>Путь тему, связанного с пунктом</t>
+  </si>
+  <si>
+    <t>Текст статьи</t>
+  </si>
+  <si>
+    <t>Подписание Статья</t>
+  </si>
+  <si>
+    <t>Модифицированный</t>
+  </si>
+  <si>
+    <t>[НЕ ИСПОЛЬЗУЕТСЯ]</t>
+  </si>
+  <si>
+    <t>Внутренний идентификатор</t>
+  </si>
+  <si>
+    <t>InApp идентификатор покупке</t>
+  </si>
+  <si>
+    <t>издатель</t>
+  </si>
+  <si>
+    <t>Газета</t>
+  </si>
+  <si>
+    <t>издание</t>
+  </si>
+  <si>
+    <t>дата</t>
+  </si>
+  <si>
+    <t>Дата потребления</t>
+  </si>
+  <si>
+    <t>Внутренний ключ покупательная</t>
+  </si>
+  <si>
+    <t>Intene идентификации пользователя InApp</t>
+  </si>
+  <si>
+    <t>Исходные данные, полученные от поставщика (Apple Store или Android)</t>
+  </si>
+  <si>
+    <t>Данные возвращаемые дешифрования данных</t>
+  </si>
+  <si>
+    <t>то же самое</t>
+  </si>
+  <si>
+    <t>product_id приобрести определяет мою скачать прав</t>
+  </si>
+  <si>
+    <t>Дата приобретения: используется для проверки действительности подписки</t>
+  </si>
+  <si>
+    <t>Дата истечения срока действия подписки (обновлено в повседневной пакетной обработки, которые пересчитывает права)</t>
+  </si>
+  <si>
+    <t>Используется ежедневно пакетной обработки, которые пересчитывает права</t>
+  </si>
+  <si>
+    <t>Внутренний идентификатор пользователя InApp</t>
+  </si>
+  <si>
+    <t>Редактор кода</t>
+  </si>
+  <si>
+    <t>Дата создания</t>
+  </si>
+  <si>
+    <t>Уникальный идентификатор для пользователя</t>
+  </si>
+  <si>
+    <t>Логин пользователя</t>
+  </si>
+  <si>
+    <t>Имя пользователя Пользователь</t>
+  </si>
+  <si>
+    <t>Поле Буфер при прохождении определение слова, потрошеная, когда выполняется преобразование HASH</t>
+  </si>
+  <si>
+    <t>Хэш пароля</t>
+  </si>
+  <si>
+    <t>Название Пользователь</t>
+  </si>
+  <si>
+    <t>Имя пользователя</t>
+  </si>
+  <si>
+    <t>Почта Пользователь</t>
+  </si>
+  <si>
+    <t>Дата подтверждения адреса электронной почты</t>
+  </si>
+  <si>
+    <t>Изменен адрес электронной почты</t>
+  </si>
+  <si>
+    <t>Подтверждение статуса адреса электронной почты (0 = активные небольшие неподтвержденные &lt;8 дней, 1 = временное ограниченное активный 2 = активный подтвердил полный доступ).</t>
+  </si>
+  <si>
+    <t>Адрес пользователя</t>
+  </si>
+  <si>
+    <t>Почтовый индекс пользователь</t>
+  </si>
+  <si>
+    <t>Город пользователь</t>
+  </si>
+  <si>
+    <t>Insee код города пользователя</t>
+  </si>
+  <si>
+    <t>Страна пользователя</t>
+  </si>
+  <si>
+    <t>Телефон пользователь</t>
+  </si>
+  <si>
+    <t>Мобильная пользователя</t>
+  </si>
+  <si>
+    <t>Пользователь Факс</t>
+  </si>
+  <si>
+    <t>Название компании пользователя</t>
+  </si>
+  <si>
+    <t>Описание пользователя</t>
+  </si>
+  <si>
+    <t>Внешний ключ к профессии пользователем (см sso_professions, когда она существует)</t>
+  </si>
+  <si>
+    <t>Внешний ключ социально-профессиональный пользователь catéogie (см sso_cat_soc_prof, когда она существует)</t>
+  </si>
+  <si>
+    <t>День рождения пользователя</t>
+  </si>
+  <si>
+    <t>Количество человек в доме пользователя</t>
+  </si>
+  <si>
+    <t>Опт-сайт</t>
+  </si>
+  <si>
+    <t>Опт-партнеры</t>
+  </si>
+  <si>
+    <t>Имя службы отвечает за регистрацию пользователя</t>
+  </si>
+  <si>
+    <t>Имя издателя ответственность за регистрацию пользователя</t>
+  </si>
+  <si>
+    <t>Тип счета (Пользователь / Группа)</t>
+  </si>
+  <si>
+    <t>Описание используется в саундтреке для обслуживания клиентов</t>
+  </si>
+  <si>
+    <t>Дата учетную запись</t>
+  </si>
+  <si>
+    <t>Дата последнего доступа к сайту по учетной записи пользователя</t>
+  </si>
+  <si>
+    <t>Дата последнего обновления профиля клиента пользователя (все источники, которые кронтаб)</t>
+  </si>
+  <si>
+    <t>Государственный счета (активный / неактивный)</t>
+  </si>
+  <si>
+    <t>Издатель</t>
+  </si>
+  <si>
+    <t>Подписка число GSOI</t>
+  </si>
+  <si>
+    <t>Дата RECONCILATION</t>
+  </si>
+  <si>
+    <t>Примирения Дейта (нуль, если примирение по-прежнему активен)</t>
+  </si>
+  <si>
+    <t>Дата CONSUM</t>
+  </si>
+  <si>
+    <t>Газета код</t>
+  </si>
+  <si>
+    <t>Дата публикации</t>
+  </si>
+  <si>
+    <t>Поддержка (tablet_ios, table_android, другое)</t>
+  </si>
+  <si>
+    <t>Внутренний ключ</t>
+  </si>
+  <si>
+    <t>Формула код</t>
+  </si>
+  <si>
+    <t>Всего уполномоченные загрузок (нуль = illimitié)</t>
+  </si>
+  <si>
+    <t>Количество оставшихся закачек (нуль = не ограничено)</t>
+  </si>
+  <si>
+    <t>Время, в течение которого мы можем увидеть снова использоваться без загрузки дополнительных ассигнований, форма ...</t>
+  </si>
+  <si>
+    <t>Количество reconsultations разрешается без потребления дополнительной маркер</t>
+  </si>
+  <si>
+    <t>Дату подписки Начало</t>
+  </si>
+  <si>
+    <t>Дата окончания подписки</t>
+  </si>
+  <si>
+    <t>Дополнительные данные сериализуются</t>
+  </si>
+  <si>
+    <t>Движение, которое отвечает за подписку</t>
+  </si>
+  <si>
+    <t>Дата, в которую был добавлен подписку на SSO</t>
+  </si>
+  <si>
+    <t>Ключ подписки первоначально потребления</t>
+  </si>
+  <si>
+    <t>Формула подписки, что является причиной потребления</t>
+  </si>
+  <si>
+    <t>Срок годности потребления</t>
+  </si>
+  <si>
+    <t>Ури, что однозначно может определить продукт потребляется</t>
+  </si>
+  <si>
+    <t>Веб-сайт позволяет reconsult элемент без декремента счетчика снова (если нет, как его используют)</t>
+  </si>
+  <si>
+    <t>Дополнительная Серийный данных</t>
+  </si>
+  <si>
+    <t>Количество скачиваний прежнему доступны, не потребляя дополнительную фишку</t>
+  </si>
+  <si>
+    <t>Внешний ключ к таблице SSO</t>
+  </si>
+  <si>
+    <t>Пользователь Регистрация для предупреждения новостей</t>
+  </si>
+  <si>
+    <t>[НЕ ИСПОЛЬЗУЕТСЯ] проверка хэш электронной почте, используемой в то время, когда пользователь должен был отдельно проверить свой счет, его регистрации уведомления и регистрации бюллетеня</t>
+  </si>
+  <si>
+    <t>[НЕ ИСПОЛЬЗУЕТСЯ] Возможность хранения дополнительных данных, таких как реквизиты о подписке на оповещения</t>
+  </si>
+  <si>
+    <t>Тип Аватар использоваться (Р = Загружена / пустым, если Facebook)</t>
+  </si>
+  <si>
+    <t>Расширение файла изображения, если тип равен "P"</t>
+  </si>
+  <si>
+    <t>Дата последней модификации аватар</t>
+  </si>
+  <si>
+    <t>id_sso если пользователь примириться</t>
+  </si>
+  <si>
+    <t>Подписка выявления gsoi</t>
+  </si>
+  <si>
+    <t>Дата примирения</t>
+  </si>
+  <si>
+    <t>E-mail про</t>
+  </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>1: Это администратор</t>
+  </si>
+  <si>
+    <t>Пользователь, зарегистрированный на рассылку</t>
+  </si>
+  <si>
+    <t>[НЕ ИСПОЛЬЗУЕТСЯ] Возможность хранения дополнительных данных, таких как детали к подписке рассылку</t>
+  </si>
+  <si>
+    <t>Facebook идентификатор пользователя</t>
+  </si>
+  <si>
+    <t>Полное имя пользователя при синхронизации с FB</t>
+  </si>
+  <si>
+    <t>Имя пользователя во время синхронизации с FB</t>
+  </si>
+  <si>
+    <t>Имя при синхронизации с FB</t>
+  </si>
+  <si>
+    <t>Имя пользователя при синхронизации с FB</t>
+  </si>
+  <si>
+    <t>Вид пользователем при синхронизации с FB</t>
+  </si>
+  <si>
+    <t>E-mail адрес пользователя при синхронизации с FB</t>
+  </si>
+  <si>
+    <t>Годовщина пользователя при синхронизации с FB</t>
+  </si>
+  <si>
+    <t>Дата синхронизация с FB</t>
+  </si>
+  <si>
+    <t>Google ID пользователя (= электронная почта)</t>
+  </si>
+  <si>
+    <t>Имя при синхронизации с Google</t>
+  </si>
+  <si>
+    <t>Имя пользователя при синхронизации с Google</t>
+  </si>
+  <si>
+    <t>Название пользователя при синхронизации с Google</t>
+  </si>
+  <si>
+    <t>Ссылка на аватар пользователя при синхронизации с Google</t>
+  </si>
+  <si>
+    <t>Пользователь почты при синхронизации с Google</t>
+  </si>
+  <si>
+    <t>Дата синхронизация с Google</t>
+  </si>
+  <si>
+    <t>Twitter ID пользователя</t>
+  </si>
+  <si>
+    <t>Имя при синхронизации с Twitter</t>
+  </si>
+  <si>
+    <t>Дата синхронизация с Twitter</t>
+  </si>
+  <si>
+    <t>обращение</t>
   </si>
 </sst>
 </file>
@@ -2902,6 +3507,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -6137,7 +6745,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6179,7 +6787,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6214,7 +6822,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6423,23 +7031,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M265"/>
+  <dimension ref="A1:O265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:G1"/>
+      <selection pane="bottomRight" activeCell="A244" sqref="A244:XFD265"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="4"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="68" customWidth="1"/>
+    <col min="10" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="168" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6480,7 +7095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -6500,8 +7115,11 @@
         <v>16</v>
       </c>
       <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6521,8 +7139,11 @@
         <v>19</v>
       </c>
       <c r="M3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6542,8 +7163,11 @@
         <v>22</v>
       </c>
       <c r="M4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -6563,8 +7187,11 @@
         <v>25</v>
       </c>
       <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6584,8 +7211,11 @@
         <v>27</v>
       </c>
       <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6605,8 +7235,11 @@
         <v>29</v>
       </c>
       <c r="M7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6626,8 +7259,11 @@
         <v>32</v>
       </c>
       <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6647,8 +7283,11 @@
         <v>35</v>
       </c>
       <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6668,8 +7307,11 @@
         <v>37</v>
       </c>
       <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O10" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6689,8 +7331,11 @@
         <v>40</v>
       </c>
       <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6710,8 +7355,11 @@
         <v>42</v>
       </c>
       <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6731,8 +7379,11 @@
         <v>44</v>
       </c>
       <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6752,8 +7403,11 @@
         <v>47</v>
       </c>
       <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -6773,8 +7427,11 @@
         <v>49</v>
       </c>
       <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -6794,8 +7451,11 @@
         <v>52</v>
       </c>
       <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -6815,8 +7475,11 @@
         <v>56</v>
       </c>
       <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -6836,8 +7499,11 @@
         <v>58</v>
       </c>
       <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -6857,8 +7523,11 @@
         <v>61</v>
       </c>
       <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -6878,8 +7547,11 @@
         <v>16</v>
       </c>
       <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -6899,8 +7571,11 @@
         <v>19</v>
       </c>
       <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6920,8 +7595,11 @@
         <v>64</v>
       </c>
       <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -6941,8 +7619,11 @@
         <v>67</v>
       </c>
       <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -6962,8 +7643,11 @@
         <v>69</v>
       </c>
       <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -6983,8 +7667,11 @@
         <v>71</v>
       </c>
       <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -7004,8 +7691,11 @@
         <v>73</v>
       </c>
       <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -7025,8 +7715,11 @@
         <v>75</v>
       </c>
       <c r="M27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -7046,8 +7739,11 @@
         <v>77</v>
       </c>
       <c r="M28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -7067,8 +7763,11 @@
         <v>79</v>
       </c>
       <c r="M29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -7088,8 +7787,11 @@
         <v>82</v>
       </c>
       <c r="M30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -7109,8 +7811,11 @@
         <v>84</v>
       </c>
       <c r="M31"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -7130,8 +7835,11 @@
         <v>58</v>
       </c>
       <c r="M32"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -7151,8 +7859,11 @@
         <v>87</v>
       </c>
       <c r="M33"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -7172,8 +7883,11 @@
         <v>89</v>
       </c>
       <c r="M34"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -7193,8 +7907,11 @@
         <v>92</v>
       </c>
       <c r="M35"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O35" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -7214,8 +7931,11 @@
         <v>95</v>
       </c>
       <c r="M36"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O36" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -7235,8 +7955,11 @@
         <v>97</v>
       </c>
       <c r="M37"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O37" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -7256,8 +7979,11 @@
         <v>100</v>
       </c>
       <c r="M38"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O38" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -7277,8 +8003,11 @@
         <v>102</v>
       </c>
       <c r="M39"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O39" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -7298,8 +8027,11 @@
         <v>105</v>
       </c>
       <c r="M40"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O40" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -7319,8 +8051,11 @@
         <v>107</v>
       </c>
       <c r="M41"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O41" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -7340,8 +8075,11 @@
         <v>109</v>
       </c>
       <c r="M42"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O42" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -7361,8 +8099,11 @@
         <v>111</v>
       </c>
       <c r="M43"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -7382,8 +8123,11 @@
         <v>114</v>
       </c>
       <c r="M44"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O44" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -7403,8 +8147,11 @@
         <v>116</v>
       </c>
       <c r="M45"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O45" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -7424,8 +8171,11 @@
         <v>118</v>
       </c>
       <c r="M46"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O46" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -7445,8 +8195,11 @@
         <v>87</v>
       </c>
       <c r="M47"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O47" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -7466,8 +8219,11 @@
         <v>124</v>
       </c>
       <c r="M48"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O48" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -7487,8 +8243,11 @@
         <v>125</v>
       </c>
       <c r="M49"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O49" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -7508,8 +8267,11 @@
         <v>128</v>
       </c>
       <c r="M50"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -7524,7 +8286,7 @@
       </c>
       <c r="M51"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -7539,7 +8301,7 @@
       </c>
       <c r="M52"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -7554,7 +8316,7 @@
       </c>
       <c r="M53"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -7574,8 +8336,11 @@
         <v>133</v>
       </c>
       <c r="M54"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O54" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -7595,8 +8360,11 @@
         <v>135</v>
       </c>
       <c r="M55"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O55" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -7616,8 +8384,11 @@
         <v>138</v>
       </c>
       <c r="M56"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O56" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -7637,8 +8408,11 @@
         <v>87</v>
       </c>
       <c r="M57"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O57" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -7658,8 +8432,11 @@
         <v>141</v>
       </c>
       <c r="M58"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O58" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -7679,8 +8456,11 @@
         <v>143</v>
       </c>
       <c r="M59"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O59" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -7700,8 +8480,11 @@
         <v>146</v>
       </c>
       <c r="M60"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O60" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -7721,8 +8504,11 @@
         <v>148</v>
       </c>
       <c r="M61"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O61" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -7742,8 +8528,11 @@
         <v>150</v>
       </c>
       <c r="M62"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O62" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -7763,8 +8552,11 @@
         <v>152</v>
       </c>
       <c r="M63"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O63" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -7784,8 +8576,11 @@
         <v>154</v>
       </c>
       <c r="M64"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O64" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -7805,8 +8600,11 @@
         <v>156</v>
       </c>
       <c r="M65"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O65" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -7826,8 +8624,11 @@
         <v>158</v>
       </c>
       <c r="M66"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O66" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -7847,8 +8648,11 @@
         <v>159</v>
       </c>
       <c r="M67"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O67" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -7868,8 +8672,11 @@
         <v>161</v>
       </c>
       <c r="M68"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O68" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -7889,8 +8696,11 @@
         <v>163</v>
       </c>
       <c r="M69"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O69" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -7910,8 +8720,11 @@
         <v>165</v>
       </c>
       <c r="M70"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O70" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -7931,8 +8744,11 @@
         <v>167</v>
       </c>
       <c r="M71"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O71" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -7952,8 +8768,11 @@
         <v>169</v>
       </c>
       <c r="M72"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O72" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -7973,8 +8792,11 @@
         <v>171</v>
       </c>
       <c r="M73"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O73" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -7994,8 +8816,11 @@
         <v>174</v>
       </c>
       <c r="M74"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O74" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -8015,8 +8840,11 @@
         <v>176</v>
       </c>
       <c r="M75"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O75" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -8036,8 +8864,11 @@
         <v>178</v>
       </c>
       <c r="M76"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O76" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -8057,8 +8888,11 @@
         <v>180</v>
       </c>
       <c r="M77"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O77" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -8078,8 +8912,11 @@
         <v>182</v>
       </c>
       <c r="M78"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O78" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -8099,8 +8936,11 @@
         <v>184</v>
       </c>
       <c r="M79"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O79" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -8120,8 +8960,11 @@
         <v>185</v>
       </c>
       <c r="M80"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O80" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -8141,8 +8984,11 @@
         <v>87</v>
       </c>
       <c r="M81"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O81" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -8162,8 +9008,11 @@
         <v>188</v>
       </c>
       <c r="M82"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -8183,8 +9032,11 @@
         <v>190</v>
       </c>
       <c r="M83"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O83" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -8204,8 +9056,11 @@
         <v>192</v>
       </c>
       <c r="M84"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O84" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -8225,8 +9080,11 @@
         <v>194</v>
       </c>
       <c r="M85"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O85" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -8246,8 +9104,11 @@
         <v>25</v>
       </c>
       <c r="M86"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O86" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -8267,8 +9128,11 @@
         <v>27</v>
       </c>
       <c r="M87"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O87" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -8288,8 +9152,11 @@
         <v>195</v>
       </c>
       <c r="M88"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O88" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -8309,8 +9176,11 @@
         <v>196</v>
       </c>
       <c r="M89"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O89" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -8330,8 +9200,11 @@
         <v>197</v>
       </c>
       <c r="M90"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O90" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -8351,8 +9224,11 @@
         <v>198</v>
       </c>
       <c r="M91"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O91" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -8372,8 +9248,11 @@
         <v>199</v>
       </c>
       <c r="M92"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O92" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -8393,8 +9272,11 @@
         <v>133</v>
       </c>
       <c r="M93"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O93" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -8414,8 +9296,11 @@
         <v>200</v>
       </c>
       <c r="M94"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O94" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -8435,8 +9320,11 @@
         <v>201</v>
       </c>
       <c r="M95"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O95" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -8456,8 +9344,11 @@
         <v>87</v>
       </c>
       <c r="M96"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O96" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -8477,8 +9368,11 @@
         <v>204</v>
       </c>
       <c r="M97"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O97" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -8498,8 +9392,11 @@
         <v>156</v>
       </c>
       <c r="M98"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O98" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -8519,8 +9416,11 @@
         <v>146</v>
       </c>
       <c r="M99"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O99" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -8540,8 +9440,11 @@
         <v>206</v>
       </c>
       <c r="M100"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O100" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -8561,8 +9464,11 @@
         <v>150</v>
       </c>
       <c r="M101"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O101" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -8582,8 +9488,11 @@
         <v>208</v>
       </c>
       <c r="M102"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O102" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -8603,8 +9512,11 @@
         <v>196</v>
       </c>
       <c r="M103"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O103" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -8624,8 +9536,11 @@
         <v>211</v>
       </c>
       <c r="M104"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O104" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -8645,8 +9560,11 @@
         <v>159</v>
       </c>
       <c r="M105"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O105" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -8666,8 +9584,11 @@
         <v>212</v>
       </c>
       <c r="M106"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O106" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -8687,8 +9608,11 @@
         <v>214</v>
       </c>
       <c r="M107"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O107" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -8708,8 +9632,11 @@
         <v>217</v>
       </c>
       <c r="M108"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O108" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -8729,8 +9656,11 @@
         <v>219</v>
       </c>
       <c r="M109"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O109" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -8750,8 +9680,11 @@
         <v>222</v>
       </c>
       <c r="M110"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O110" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -8771,8 +9704,11 @@
         <v>224</v>
       </c>
       <c r="M111"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O111" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -8792,8 +9728,11 @@
         <v>226</v>
       </c>
       <c r="M112"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O112" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -8813,8 +9752,11 @@
         <v>66</v>
       </c>
       <c r="M113"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O113" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -8834,8 +9776,11 @@
         <v>228</v>
       </c>
       <c r="M114"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O114" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -8855,8 +9800,11 @@
         <v>230</v>
       </c>
       <c r="M115"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O115" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -8876,8 +9824,11 @@
         <v>232</v>
       </c>
       <c r="M116"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O116" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -8897,8 +9848,11 @@
         <v>234</v>
       </c>
       <c r="M117"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O117" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -8918,8 +9872,11 @@
         <v>236</v>
       </c>
       <c r="M118"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O118" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -8939,8 +9896,11 @@
         <v>237</v>
       </c>
       <c r="M119"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O119" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -8960,8 +9920,11 @@
         <v>237</v>
       </c>
       <c r="M120"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O120" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -8981,8 +9944,11 @@
         <v>237</v>
       </c>
       <c r="M121"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O121" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -9002,8 +9968,11 @@
         <v>237</v>
       </c>
       <c r="M122"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O122" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -9023,8 +9992,11 @@
         <v>237</v>
       </c>
       <c r="M123"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O123" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -9044,8 +10016,11 @@
         <v>237</v>
       </c>
       <c r="M124"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O124" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -9065,8 +10040,11 @@
         <v>237</v>
       </c>
       <c r="M125"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O125" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -9086,8 +10064,11 @@
         <v>237</v>
       </c>
       <c r="M126"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O126" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -9107,8 +10088,11 @@
         <v>249</v>
       </c>
       <c r="M127"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O127" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -9128,8 +10112,11 @@
         <v>236</v>
       </c>
       <c r="M128"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O128" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -9149,8 +10136,11 @@
         <v>237</v>
       </c>
       <c r="M129"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O129" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -9170,8 +10160,11 @@
         <v>237</v>
       </c>
       <c r="M130"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O130" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -9191,8 +10184,11 @@
         <v>237</v>
       </c>
       <c r="M131"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O131" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -9212,8 +10208,11 @@
         <v>237</v>
       </c>
       <c r="M132"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O132" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -9233,8 +10232,11 @@
         <v>237</v>
       </c>
       <c r="M133"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O133" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -9254,8 +10256,11 @@
         <v>237</v>
       </c>
       <c r="M134"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O134" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -9275,8 +10280,11 @@
         <v>237</v>
       </c>
       <c r="M135"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O135" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -9296,8 +10304,11 @@
         <v>237</v>
       </c>
       <c r="M136"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O136" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -9317,8 +10328,11 @@
         <v>237</v>
       </c>
       <c r="M137"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O137" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -9338,8 +10352,11 @@
         <v>261</v>
       </c>
       <c r="M138"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O138" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -9359,8 +10376,11 @@
         <v>263</v>
       </c>
       <c r="M139"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O139" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -9380,8 +10400,11 @@
         <v>265</v>
       </c>
       <c r="M140"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O140" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -9401,8 +10424,11 @@
         <v>237</v>
       </c>
       <c r="M141"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O141" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -9422,8 +10448,11 @@
         <v>269</v>
       </c>
       <c r="M142"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O142" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -9443,8 +10472,11 @@
         <v>270</v>
       </c>
       <c r="M143"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O143" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -9464,8 +10496,11 @@
         <v>271</v>
       </c>
       <c r="M144"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O144" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>11</v>
       </c>
@@ -9485,8 +10520,11 @@
         <v>272</v>
       </c>
       <c r="M145"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O145" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -9506,8 +10544,11 @@
         <v>274</v>
       </c>
       <c r="M146"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O146" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -9527,8 +10568,11 @@
         <v>276</v>
       </c>
       <c r="M147"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O147" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -9548,8 +10592,11 @@
         <v>277</v>
       </c>
       <c r="M148"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O148" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>11</v>
       </c>
@@ -9569,8 +10616,11 @@
         <v>280</v>
       </c>
       <c r="M149"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O149" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -9588,7 +10638,7 @@
       </c>
       <c r="M150"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -9608,8 +10658,11 @@
         <v>283</v>
       </c>
       <c r="M151"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O151" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -9629,8 +10682,11 @@
         <v>285</v>
       </c>
       <c r="M152"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O152" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>11</v>
       </c>
@@ -9650,8 +10706,11 @@
         <v>287</v>
       </c>
       <c r="M153"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O153" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -9671,8 +10730,11 @@
         <v>288</v>
       </c>
       <c r="M154"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O154" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>11</v>
       </c>
@@ -9692,8 +10754,11 @@
         <v>289</v>
       </c>
       <c r="M155"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O155" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -9713,8 +10778,11 @@
         <v>291</v>
       </c>
       <c r="M156"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O156" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -9734,8 +10802,11 @@
         <v>293</v>
       </c>
       <c r="M157"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O157" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -9755,8 +10826,11 @@
         <v>295</v>
       </c>
       <c r="M158"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O158" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -9779,8 +10853,11 @@
         <v>297</v>
       </c>
       <c r="M159"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O159" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -9800,8 +10877,11 @@
         <v>299</v>
       </c>
       <c r="M160"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O160" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>11</v>
       </c>
@@ -9821,8 +10901,11 @@
         <v>301</v>
       </c>
       <c r="M161"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O161" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>11</v>
       </c>
@@ -9842,8 +10925,11 @@
         <v>303</v>
       </c>
       <c r="M162"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O162" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -9863,8 +10949,11 @@
         <v>305</v>
       </c>
       <c r="M163"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O163" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -9884,8 +10973,11 @@
         <v>308</v>
       </c>
       <c r="M164"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O164" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -9905,8 +10997,11 @@
         <v>310</v>
       </c>
       <c r="M165"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O165" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -9926,8 +11021,11 @@
         <v>312</v>
       </c>
       <c r="M166"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O166" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -9947,8 +11045,11 @@
         <v>314</v>
       </c>
       <c r="M167"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O167" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>11</v>
       </c>
@@ -9968,8 +11069,11 @@
         <v>316</v>
       </c>
       <c r="M168"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O168" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>11</v>
       </c>
@@ -9989,8 +11093,11 @@
         <v>319</v>
       </c>
       <c r="M169"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O169" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -10010,8 +11117,11 @@
         <v>322</v>
       </c>
       <c r="M170"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O170" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>11</v>
       </c>
@@ -10031,8 +11141,11 @@
         <v>324</v>
       </c>
       <c r="M171"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O171" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -10052,8 +11165,11 @@
         <v>326</v>
       </c>
       <c r="M172"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O172" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>11</v>
       </c>
@@ -10073,8 +11189,11 @@
         <v>328</v>
       </c>
       <c r="M173"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O173" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -10094,8 +11213,11 @@
         <v>330</v>
       </c>
       <c r="M174"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O174" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>11</v>
       </c>
@@ -10115,8 +11237,11 @@
         <v>332</v>
       </c>
       <c r="M175"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O175" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>11</v>
       </c>
@@ -10136,8 +11261,11 @@
         <v>334</v>
       </c>
       <c r="M176"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O176" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -10157,8 +11285,11 @@
         <v>337</v>
       </c>
       <c r="M177"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O177" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -10178,8 +11309,11 @@
         <v>339</v>
       </c>
       <c r="M178"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O178" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -10199,8 +11333,11 @@
         <v>341</v>
       </c>
       <c r="M179"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O179" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -10220,8 +11357,11 @@
         <v>343</v>
       </c>
       <c r="M180"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O180" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -10241,8 +11381,11 @@
         <v>345</v>
       </c>
       <c r="M181"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O181" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -10262,8 +11405,11 @@
         <v>347</v>
       </c>
       <c r="M182"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O182" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -10283,8 +11429,11 @@
         <v>273</v>
       </c>
       <c r="M183"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -10304,8 +11453,11 @@
         <v>349</v>
       </c>
       <c r="M184"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O184" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -10325,8 +11477,11 @@
         <v>350</v>
       </c>
       <c r="M185"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O185" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -10346,8 +11501,11 @@
         <v>352</v>
       </c>
       <c r="M186"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O186" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -10367,8 +11525,11 @@
         <v>354</v>
       </c>
       <c r="M187"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O187" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -10388,8 +11549,11 @@
         <v>357</v>
       </c>
       <c r="M188"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O188" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -10409,8 +11573,11 @@
         <v>358</v>
       </c>
       <c r="M189"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -10430,8 +11597,11 @@
         <v>271</v>
       </c>
       <c r="M190"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O190" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -10451,8 +11621,11 @@
         <v>360</v>
       </c>
       <c r="M191"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O191" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -10472,8 +11645,11 @@
         <v>75</v>
       </c>
       <c r="M192"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O192" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>11</v>
       </c>
@@ -10493,8 +11669,11 @@
         <v>363</v>
       </c>
       <c r="M193"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O193" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -10514,8 +11693,11 @@
         <v>365</v>
       </c>
       <c r="M194"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O194" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>11</v>
       </c>
@@ -10533,7 +11715,7 @@
       </c>
       <c r="M195"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>11</v>
       </c>
@@ -10553,8 +11735,11 @@
         <v>370</v>
       </c>
       <c r="M196"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O196" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>11</v>
       </c>
@@ -10574,8 +11759,11 @@
         <v>188</v>
       </c>
       <c r="M197"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O197" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>11</v>
       </c>
@@ -10595,8 +11783,11 @@
         <v>373</v>
       </c>
       <c r="M198"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O198" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>11</v>
       </c>
@@ -10616,8 +11807,11 @@
         <v>375</v>
       </c>
       <c r="M199"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O199" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -10637,8 +11831,11 @@
         <v>377</v>
       </c>
       <c r="M200"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O200" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -10658,8 +11855,11 @@
         <v>380</v>
       </c>
       <c r="M201"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O201" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -10679,8 +11879,11 @@
         <v>382</v>
       </c>
       <c r="M202"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O202" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -10700,8 +11903,11 @@
         <v>384</v>
       </c>
       <c r="M203"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O203" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -10721,8 +11927,11 @@
         <v>387</v>
       </c>
       <c r="M204"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O204" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>11</v>
       </c>
@@ -10742,8 +11951,11 @@
         <v>390</v>
       </c>
       <c r="M205"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O205" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>11</v>
       </c>
@@ -10763,8 +11975,11 @@
         <v>392</v>
       </c>
       <c r="M206"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O206" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>11</v>
       </c>
@@ -10784,8 +11999,11 @@
         <v>393</v>
       </c>
       <c r="M207"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O207" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>11</v>
       </c>
@@ -10805,8 +12023,11 @@
         <v>109</v>
       </c>
       <c r="M208"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O208" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>11</v>
       </c>
@@ -10826,8 +12047,11 @@
         <v>370</v>
       </c>
       <c r="M209"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O209" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>11</v>
       </c>
@@ -10847,8 +12071,11 @@
         <v>397</v>
       </c>
       <c r="M210"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O210" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>11</v>
       </c>
@@ -10868,8 +12095,11 @@
         <v>358</v>
       </c>
       <c r="M211"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O211" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>11</v>
       </c>
@@ -10889,8 +12119,11 @@
         <v>399</v>
       </c>
       <c r="M212"/>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O212" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>11</v>
       </c>
@@ -10910,8 +12143,11 @@
         <v>228</v>
       </c>
       <c r="M213"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O213" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -10931,8 +12167,11 @@
         <v>400</v>
       </c>
       <c r="M214"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O214" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -10952,8 +12191,11 @@
         <v>403</v>
       </c>
       <c r="M215"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O215" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>11</v>
       </c>
@@ -10973,8 +12215,11 @@
         <v>405</v>
       </c>
       <c r="M216"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O216" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>11</v>
       </c>
@@ -10994,8 +12239,11 @@
         <v>407</v>
       </c>
       <c r="M217"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O217" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -11015,8 +12263,11 @@
         <v>409</v>
       </c>
       <c r="M218"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O218" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -11036,8 +12287,11 @@
         <v>411</v>
       </c>
       <c r="M219"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O219" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -11057,8 +12311,11 @@
         <v>412</v>
       </c>
       <c r="M220"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O220" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -11078,8 +12335,11 @@
         <v>414</v>
       </c>
       <c r="M221"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O221" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>11</v>
       </c>
@@ -11099,8 +12359,11 @@
         <v>415</v>
       </c>
       <c r="M222"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O222" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -11120,8 +12383,11 @@
         <v>411</v>
       </c>
       <c r="M223"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O223" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>11</v>
       </c>
@@ -11141,8 +12407,11 @@
         <v>418</v>
       </c>
       <c r="M224"/>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O224" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -11162,8 +12431,11 @@
         <v>420</v>
       </c>
       <c r="M225"/>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O225" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>11</v>
       </c>
@@ -11183,8 +12455,11 @@
         <v>421</v>
       </c>
       <c r="M226"/>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O226" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>11</v>
       </c>
@@ -11204,8 +12479,11 @@
         <v>222</v>
       </c>
       <c r="M227"/>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O227" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>11</v>
       </c>
@@ -11225,8 +12503,11 @@
         <v>424</v>
       </c>
       <c r="M228"/>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O228" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -11246,8 +12527,11 @@
         <v>426</v>
       </c>
       <c r="M229"/>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O229" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>11</v>
       </c>
@@ -11267,8 +12551,11 @@
         <v>428</v>
       </c>
       <c r="M230"/>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O230" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>11</v>
       </c>
@@ -11288,8 +12575,11 @@
         <v>430</v>
       </c>
       <c r="M231"/>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O231" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>11</v>
       </c>
@@ -11309,8 +12599,11 @@
         <v>432</v>
       </c>
       <c r="M232"/>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O232" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -11330,8 +12623,11 @@
         <v>434</v>
       </c>
       <c r="M233"/>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O233" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -11351,8 +12647,11 @@
         <v>23</v>
       </c>
       <c r="M234"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O234" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -11372,8 +12671,11 @@
         <v>438</v>
       </c>
       <c r="M235"/>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O235" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -11393,8 +12695,11 @@
         <v>411</v>
       </c>
       <c r="M236"/>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O236" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -11414,8 +12719,11 @@
         <v>440</v>
       </c>
       <c r="M237"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O237" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -11435,8 +12743,11 @@
         <v>414</v>
       </c>
       <c r="M238"/>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O238" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -11456,8 +12767,11 @@
         <v>441</v>
       </c>
       <c r="M239"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O239" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -11477,8 +12791,11 @@
         <v>411</v>
       </c>
       <c r="M240"/>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O240" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -11498,8 +12815,11 @@
         <v>440</v>
       </c>
       <c r="M241"/>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O241" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -11519,8 +12839,11 @@
         <v>414</v>
       </c>
       <c r="M242"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O242" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -11540,8 +12863,11 @@
         <v>441</v>
       </c>
       <c r="M243"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O243" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>11</v>
       </c>
@@ -11561,8 +12887,11 @@
         <v>411</v>
       </c>
       <c r="M244"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O244" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -11582,8 +12911,11 @@
         <v>445</v>
       </c>
       <c r="M245"/>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O245" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -11603,8 +12935,11 @@
         <v>447</v>
       </c>
       <c r="M246"/>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O246" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -11624,8 +12959,11 @@
         <v>449</v>
       </c>
       <c r="M247"/>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O247" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -11645,8 +12983,11 @@
         <v>451</v>
       </c>
       <c r="M248"/>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O248" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>11</v>
       </c>
@@ -11666,8 +13007,11 @@
         <v>453</v>
       </c>
       <c r="M249"/>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O249" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>11</v>
       </c>
@@ -11687,8 +13031,11 @@
         <v>455</v>
       </c>
       <c r="M250"/>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O250" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>11</v>
       </c>
@@ -11708,8 +13055,11 @@
         <v>457</v>
       </c>
       <c r="M251"/>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O251" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>11</v>
       </c>
@@ -11729,8 +13079,11 @@
         <v>459</v>
       </c>
       <c r="M252"/>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O252" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -11750,8 +13103,11 @@
         <v>460</v>
       </c>
       <c r="M253"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O253" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -11771,8 +13127,11 @@
         <v>411</v>
       </c>
       <c r="M254"/>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O254" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -11792,8 +13151,11 @@
         <v>463</v>
       </c>
       <c r="M255"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O255" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -11813,8 +13175,11 @@
         <v>464</v>
       </c>
       <c r="M256"/>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O256" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>11</v>
       </c>
@@ -11834,8 +13199,11 @@
         <v>465</v>
       </c>
       <c r="M257"/>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O257" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -11855,8 +13223,11 @@
         <v>466</v>
       </c>
       <c r="M258"/>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O258" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>11</v>
       </c>
@@ -11878,8 +13249,11 @@
       <c r="M259" s="4" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O259" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>11</v>
       </c>
@@ -11899,8 +13273,11 @@
         <v>470</v>
       </c>
       <c r="M260"/>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O260" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>11</v>
       </c>
@@ -11920,8 +13297,11 @@
         <v>471</v>
       </c>
       <c r="M261"/>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O261" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>11</v>
       </c>
@@ -11941,8 +13321,11 @@
         <v>411</v>
       </c>
       <c r="M262"/>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O262" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>11</v>
       </c>
@@ -11962,8 +13345,11 @@
         <v>474</v>
       </c>
       <c r="M263"/>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O263" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>11</v>
       </c>
@@ -11983,8 +13369,11 @@
         <v>476</v>
       </c>
       <c r="M264"/>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O264" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>11</v>
       </c>
@@ -12004,6 +13393,9 @@
         <v>477</v>
       </c>
       <c r="M265"/>
+      <c r="O265" t="s">
+        <v>678</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K265"/>
